--- a/tables/water/sediment_flux.xlsx
+++ b/tables/water/sediment_flux.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthipsey/AED Dropbox/Matt Hipsey/GitHub/cdm-science/tables/water/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275D413A-1B9E-9448-A330-5F430A2ADE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B724186-C5C1-C348-9F17-232FE4D9EFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="2560" windowWidth="33620" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8420" yWindow="2560" windowWidth="33620" windowHeight="11500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="105">
   <si>
     <t>OXY</t>
   </si>
@@ -352,12 +353,24 @@
   <si>
     <t>Phosphate flux</t>
   </si>
+  <si>
+    <t>Sand fraction</t>
+  </si>
+  <si>
+    <t>Silt Fraction</t>
+  </si>
+  <si>
+    <t>Clay fraction</t>
+  </si>
+  <si>
+    <t>Organic matter fraction</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,8 +425,23 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,8 +466,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD6EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -585,11 +625,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -644,6 +745,24 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1880,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B217946-352C-5740-A61F-F636E02B09F0}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2628,4 +2747,755 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2FFA79-7405-544F-85EB-8D3B2C8AADAE}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0.06</v>
+      </c>
+      <c r="E2" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="F2" s="26">
+        <v>0.93</v>
+      </c>
+      <c r="G2" s="26">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.69</v>
+      </c>
+      <c r="E3" s="27">
+        <v>0.18</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G3" s="27">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.06</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0.93</v>
+      </c>
+      <c r="G4" s="26">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="F5" s="27">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G5" s="27">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.69</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0.18</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.06</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0.93</v>
+      </c>
+      <c r="G7" s="27">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="E8" s="26">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="G8" s="26">
+        <v>6.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.67</v>
+      </c>
+      <c r="E9" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0.27</v>
+      </c>
+      <c r="G9" s="27">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.06</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.93</v>
+      </c>
+      <c r="G10" s="26">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="25">
+        <v>2E-3</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0.998</v>
+      </c>
+      <c r="G11" s="27">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0.88</v>
+      </c>
+      <c r="E12" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="25">
+        <v>2E-3</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0</v>
+      </c>
+      <c r="F13" s="27">
+        <v>0.998</v>
+      </c>
+      <c r="G13" s="27">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="E14" s="26">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F14" s="26">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="G14" s="26">
+        <v>7.8799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0.88</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="G15" s="27">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="G16" s="26">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="E17" s="27">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F17" s="27">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G17" s="27">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="25">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="E18" s="26">
+        <v>0.115</v>
+      </c>
+      <c r="F18" s="26">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0.16619999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="E19" s="27">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F19" s="27">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G19" s="27">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="E20" s="26">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G20" s="26">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="E21" s="27">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F21" s="27">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="G21" s="27">
+        <v>3.2599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="E22" s="26">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F22" s="26">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G22" s="26">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="E23" s="27">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F23" s="27">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G23" s="27">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0.499</v>
+      </c>
+      <c r="E24" s="26">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F24" s="26">
+        <v>0.498</v>
+      </c>
+      <c r="G24" s="26">
+        <v>9.98E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="E25" s="27">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F25" s="27">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G25" s="27">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="25">
+        <v>1E-3</v>
+      </c>
+      <c r="E26" s="26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="26">
+        <v>0.999</v>
+      </c>
+      <c r="G26" s="26">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="25">
+        <v>0.499</v>
+      </c>
+      <c r="E27" s="27">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F27" s="27">
+        <v>0.498</v>
+      </c>
+      <c r="G27" s="27">
+        <v>9.98E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="25">
+        <v>1E-3</v>
+      </c>
+      <c r="E28" s="26">
+        <v>0</v>
+      </c>
+      <c r="F28" s="26">
+        <v>0.999</v>
+      </c>
+      <c r="G28" s="26">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="25">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E29" s="27">
+        <v>0</v>
+      </c>
+      <c r="F29" s="27">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="G29" s="27">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="25">
+        <v>0.106</v>
+      </c>
+      <c r="E30" s="26">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F30" s="26">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="G30" s="26">
+        <v>2.12E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="25">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E31" s="27">
+        <v>0</v>
+      </c>
+      <c r="F31" s="27">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="G31" s="27">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="25">
+        <v>0</v>
+      </c>
+      <c r="E32" s="26">
+        <v>0</v>
+      </c>
+      <c r="F32" s="26">
+        <v>1</v>
+      </c>
+      <c r="G32" s="26">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>